--- a/실무_엑셀_예제_파일/Chapter06/06-006-1.xlsx
+++ b/실무_엑셀_예제_파일/Chapter06/06-006-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\9. 내 드롭박스\@. #오빠두\# 홈페이지 공유파일\1. 엑셀 - 무료강의\진짜쓰는 실무엑셀\Chapter06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\excel\실무_엑셀_예제_파일\Chapter06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B96786-629B-45C2-AEC3-6241D43FA04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65EF8D9-771C-4307-A52F-974305FFC9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{F4D5B629-FAE8-4DC8-AAFB-98E0C6403F89}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{F4D5B629-FAE8-4DC8-AAFB-98E0C6403F89}"/>
   </bookViews>
   <sheets>
     <sheet name="헬로마트주간매출-피벗" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="59" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -306,7 +306,16 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="right"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left"/>
     </dxf>
@@ -554,7 +563,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{510DD4F9-3E58-45BC-9216-B056DF4EA160}" name="피벗 테이블2" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="7" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{510DD4F9-3E58-45BC-9216-B056DF4EA160}" name="피벗 테이블2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:H10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -632,20 +641,20 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="합계 : 매출액" fld="2" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="합계 : 매출액" fld="2" showDataAs="difference" baseField="1" baseItem="1048828" numFmtId="3"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
   </formats>
@@ -981,17 +990,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198F95A3-0CFD-475C-B81D-502F4DD7A353}">
   <dimension ref="B2:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.875" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
     <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="8" width="15.375" customWidth="1"/>
+    <col min="3" max="8" width="15.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
@@ -1002,7 +1013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B3" s="12" t="s">
         <v>28</v>
       </c>
@@ -1026,165 +1037,151 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
-        <v>1017000</v>
-      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="11">
-        <v>1179000</v>
+        <v>162000</v>
       </c>
       <c r="E4" s="11">
-        <v>1294000</v>
+        <v>115000</v>
       </c>
       <c r="F4" s="11">
-        <v>2824000</v>
+        <v>1530000</v>
       </c>
       <c r="G4" s="11">
-        <v>1029000</v>
+        <v>-1795000</v>
       </c>
       <c r="H4" s="11">
-        <v>1599000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11">
-        <v>1689000</v>
-      </c>
+      <c r="C5" s="11"/>
       <c r="D5" s="11">
-        <v>1109000</v>
+        <v>-580000</v>
       </c>
       <c r="E5" s="11">
-        <v>2757000</v>
+        <v>1648000</v>
       </c>
       <c r="F5" s="11">
-        <v>1493000</v>
+        <v>-1264000</v>
       </c>
       <c r="G5" s="11">
-        <v>1887000</v>
+        <v>394000</v>
       </c>
       <c r="H5" s="11">
-        <v>2881000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>994000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
-        <v>1002000</v>
-      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="11">
-        <v>1875000</v>
+        <v>873000</v>
       </c>
       <c r="E6" s="11">
-        <v>2829000</v>
+        <v>954000</v>
       </c>
       <c r="F6" s="11">
-        <v>2291000</v>
+        <v>-538000</v>
       </c>
       <c r="G6" s="11">
-        <v>2178000</v>
+        <v>-113000</v>
       </c>
       <c r="H6" s="11">
-        <v>2735000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+        <v>557000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="11">
-        <v>1519000</v>
-      </c>
+      <c r="C7" s="11"/>
       <c r="D7" s="11">
-        <v>1029000</v>
+        <v>-490000</v>
       </c>
       <c r="E7" s="11">
-        <v>2155000</v>
+        <v>1126000</v>
       </c>
       <c r="F7" s="11">
-        <v>2411000</v>
+        <v>256000</v>
       </c>
       <c r="G7" s="11">
-        <v>1729000</v>
+        <v>-682000</v>
       </c>
       <c r="H7" s="11">
-        <v>1528000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-201000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11">
-        <v>2205000</v>
-      </c>
+      <c r="C8" s="11"/>
       <c r="D8" s="11">
-        <v>1189000</v>
+        <v>-1016000</v>
       </c>
       <c r="E8" s="11">
-        <v>2014000</v>
+        <v>825000</v>
       </c>
       <c r="F8" s="11">
-        <v>1285000</v>
+        <v>-729000</v>
       </c>
       <c r="G8" s="11">
-        <v>1593000</v>
+        <v>308000</v>
       </c>
       <c r="H8" s="11">
-        <v>1604000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="11">
-        <v>2502000</v>
-      </c>
+      <c r="C9" s="11"/>
       <c r="D9" s="11">
-        <v>1769000</v>
+        <v>-733000</v>
       </c>
       <c r="E9" s="11">
-        <v>2726000</v>
+        <v>957000</v>
       </c>
       <c r="F9" s="11">
-        <v>2842000</v>
+        <v>116000</v>
       </c>
       <c r="G9" s="11">
-        <v>1862000</v>
+        <v>-980000</v>
       </c>
       <c r="H9" s="11">
-        <v>2915000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1053000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11">
-        <v>9934000</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="11">
-        <v>8150000</v>
+        <v>-1784000</v>
       </c>
       <c r="E10" s="11">
-        <v>13775000</v>
+        <v>5625000</v>
       </c>
       <c r="F10" s="11">
-        <v>13146000</v>
+        <v>-629000</v>
       </c>
       <c r="G10" s="11">
-        <v>10278000</v>
+        <v>-2868000</v>
       </c>
       <c r="H10" s="11">
-        <v>13262000</v>
+        <v>2984000</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -1280,25 +1277,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.75" customWidth="1"/>
-    <col min="2" max="4" width="15.125" customWidth="1"/>
+    <col min="2" max="4" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:4" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:4" ht="25.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C3" s="7"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1309,7 +1306,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1320,7 +1317,7 @@
         <v>1002000</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1331,7 +1328,7 @@
         <v>1017000</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>1689000</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>2502000</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1364,7 +1361,7 @@
         <v>1519000</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1375,7 +1372,7 @@
         <v>2205000</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1386,7 +1383,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1397,7 +1394,7 @@
         <v>1179000</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1405,7 @@
         <v>1109000</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1416,7 @@
         <v>1769000</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1427,7 @@
         <v>1029000</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
@@ -1441,7 +1438,7 @@
         <v>1189000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>2829000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1460,7 @@
         <v>1294000</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1474,7 +1471,7 @@
         <v>2757000</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>2726000</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +1493,7 @@
         <v>2155000</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1504,7 @@
         <v>2014000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>5</v>
       </c>
@@ -1518,7 +1515,7 @@
         <v>2291000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
@@ -1529,7 +1526,7 @@
         <v>2824000</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1540,7 +1537,7 @@
         <v>1493000</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1551,7 +1548,7 @@
         <v>2842000</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
@@ -1562,7 +1559,7 @@
         <v>2411000</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
@@ -1573,7 +1570,7 @@
         <v>1285000</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1584,7 +1581,7 @@
         <v>2178000</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -1595,7 +1592,7 @@
         <v>1029000</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>1887000</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1614,7 @@
         <v>1862000</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B33" s="2" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1625,7 @@
         <v>1729000</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B34" s="2" t="s">
         <v>15</v>
       </c>
@@ -1639,7 +1636,7 @@
         <v>1593000</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B35" s="2" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>2735000</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
@@ -1661,7 +1658,7 @@
         <v>1599000</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B37" s="2" t="s">
         <v>9</v>
       </c>
@@ -1672,7 +1669,7 @@
         <v>2881000</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B38" s="2" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1680,7 @@
         <v>2915000</v>
       </c>
     </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B39" s="2" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1691,7 @@
         <v>1528000</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
@@ -1705,37 +1702,37 @@
         <v>1604000</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B41" s="2"/>
       <c r="C41" s="7"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B42" s="2"/>
       <c r="C42" s="7"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B43" s="2"/>
       <c r="C43" s="7"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B44" s="2"/>
       <c r="C44" s="7"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B45" s="2"/>
       <c r="C45" s="7"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B46" s="2"/>
       <c r="C46" s="7"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B47" s="2"/>
       <c r="C47" s="7"/>
       <c r="D47" s="4"/>
